--- a/medicine/Mort/Peine_de_mort_en_Floride/Peine_de_mort_en_Floride.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Floride/Peine_de_mort_en_Floride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Floride est le premier État à avoir conformé sa législation aux exigences de la Cour suprême des États-Unis et le premier État à avoir exécuté une personne contre son gré après 1976, John Spenkelink (en) prétendait avoir agi en état de légitime défense et fut exécuté en 1979, quinze ans après la dernière exécution qui ait eu lieu dans cet État. Les exécutions étaient réalisées par pendaison jusque 1924, par chaise électrique depuis 1924 et depuis cette date le condamné a le choix entre la chaise électrique et l'injection létale[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Floride est le premier État à avoir conformé sa législation aux exigences de la Cour suprême des États-Unis et le premier État à avoir exécuté une personne contre son gré après 1976, John Spenkelink (en) prétendait avoir agi en état de légitime défense et fut exécuté en 1979, quinze ans après la dernière exécution qui ait eu lieu dans cet État. Les exécutions étaient réalisées par pendaison jusque 1924, par chaise électrique depuis 1924 et depuis cette date le condamné a le choix entre la chaise électrique et l'injection létale,. 
 La peine de mort y est encourue pour meurtre aggravé et théoriquement pour vente d'une drogue létale et viol d'enfant suivi de blessures. Le juge décide de la sentence après avoir été informé du nombre de jurés qui approuvent une éventuelle condamnation à mort, un appel direct est formulé devant la Cour suprême de l'État. Le gouverneur fixe les dates d'exécutions, une éventuelle commutation peut être décidée par le comité des grâces au sein duquel le gouverneur dispose d'un droit de veto.
 Jusqu'au 30 juin 2008, les exécutions ont été suspendues à la suite de la mise à mort d'Ángel Nieves Díaz (en) qui eut lieu dans des conditions alors vivement critiquées et éprouvantes pour le supplicié. Un moratoire à l'initiative de Jeb Bush sur l'injection mortelle fut engagé. Le nouveau gouverneur Charlie Crist décida de mettre fin à ce moratoire instauré par son prédécesseur en signant l'ordre d'exécution de Mark Dean Schwab, qui fut lui-même suspendu par un moratoire national sur la peine de mort ; il signa alors à nouveau cet ordre le 1er juillet 2008 lorsque ce second moratoire fut stoppé. 
 Les condamnés sont en moyenne exécutés après avoir passé quatorze ans dans le couloir de la mort. Ceux-ci portent une combinaison orange par opposition aux autres prisonniers habillés de bleu.
@@ -514,10 +526,12 @@
           <t>Exécutions depuis 1972</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Starke à la Florida State Prison.
-En août 2019, le couloir de la mort de Floride compte 341 condamnés dont trois femmes[3]. Depuis 1972, 34 condamnés ont été graciés en Floride[4].
+En août 2019, le couloir de la mort de Floride compte 341 condamnés dont trois femmes. Depuis 1972, 34 condamnés ont été graciés en Floride.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Crimes capitaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« F.S. 782.04(1)(a) - Meurtre au premier degré »
 « F.S. 782.04(1)(a)3 - Distribution illégale de stupéfiants par un majeur de 18 ans ayant entrainé la mort »</t>
